--- a/Interaktif_Vaziyet/data/baslayabilir.xlsx
+++ b/Interaktif_Vaziyet/data/baslayabilir.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Interaktif_Vaziyet-Guncellenmis (1)\Interaktif_Vaziyet-NCRli\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Interaktif_Vaziyet-NCR-Son\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427CC8F3-5442-45F3-B938-1C2D23F61714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80A44B3-5B29-483A-A945-E331E4FDFFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6262979-19E0-4143-8063-C576AAC391A6}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>ADA / PARSEL</t>
   </si>
   <si>
-    <t>İmalat türü:</t>
-  </si>
-  <si>
     <t>BLOK ADI</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>&lt;TARİH&gt;</t>
+  </si>
+  <si>
+    <t>İMALAT TÜRÜ:</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -214,14 +213,17 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,61 +561,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B2ED4E-8972-415E-9825-3689477ACC84}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="161" zoomScaleNormal="80" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="161" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="161" zoomScaleNormal="80" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="161" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="7" customWidth="1"/>
-    <col min="2" max="2" width="49.44140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16" style="13" customWidth="1"/>
+    <col min="2" max="2" width="49.44140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
